--- a/biology/Médecine/Sida_en_Afrique_subsaharienne/Sida_en_Afrique_subsaharienne.xlsx
+++ b/biology/Médecine/Sida_en_Afrique_subsaharienne/Sida_en_Afrique_subsaharienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Afrique est le continent le plus touché par l'épidémie de sida. En 2011, 69 % des cas et 70 % des décès occasionnés par la maladie ont eu lieu dans la région[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Afrique est le continent le plus touché par l'épidémie de sida. En 2011, 69 % des cas et 70 % des décès occasionnés par la maladie ont eu lieu dans la région.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">34 à 46 millions de personnes dans le monde sont porteurs du virus du sida. Pour la seule année 2003, plus de 3 millions de malades en sont morts. Cette même année, l’Afrique dont la population ne représente que 11 % de la population mondiale, abritait les 2/3 de tous les patients atteints par le VIH du monde.
 Aujourd’hui, un Africain sur 12 est porteur du virus et/ou malade (8).
@@ -545,7 +559,9 @@
           <t>Incidence sur les indicateurs économiques et sur la croissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La croissance économique d’un pays est habituellement corrélée à l’espérance de vie. On considère que 0,5 % de croissance économique est gagné pour chaque 5 ans d’espérance de vie supplémentaire. Avec une espérance de vie à 49 ans, la croissance économique de l’Afrique se trouve gravement hypothéquée. Les dépenses en infrastructures, en personnel et en formation que nécessite le SIDA grèvent considérablement le développement économique de pays déjà bien mal partis. Des marchés du travail peu développés, des taux d’épargne et d’investissement insuffisants, des standards de gouvernance inadaptés et un niveau d’éducation globalement faible sont autant de facteurs qui aggravent l’impact du SIDA sur la région tout entière.
 Il est très difficile de chiffrer précisément les conséquences économiques d’une maladie donnée sur le développement d’une région. La commission « Macroeconomics and Health » du Forum économique mondial a tenté de le faire(10) : pour l’ensemble de l’Afrique, le SIDA coûterait entre 11,7 % et 35,1 % du PNB annuel. En fait, ces chiffres sont peut-être légèrement surestimés dans la mesure où la majorité de la population active atteinte est constituée de main-d’œuvre non qualifiée, aisément remplaçable dans les entreprises.
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,7 +622,9 @@
           <t>Incidences macro-économiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Trois types d’approches sont possibles pour évaluer les répercussions du SIDA sur les indices macro-économiques :
 l’approche « coût de la maladie » : il s’agit de multiplier le nombre de personnes atteints par le virus par les coûts de traitement et les pertes de recettes. Cette approche conduit généralement à surestimer le coût dans les pays en voie de développement, dans lesquels l’impact réel sur le coût du travail est difficile à estimer compte tenu de la situation de surplus de l’offre de travail ;
@@ -643,7 +663,9 @@
           <t>Incidences micro-économiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les entreprises privées sont concernées par les aspects macro-économiques de l’épidémie parce que l’environnement dans lequel elles déploient leurs efforts en est affecté. Cependant, les entreprises ont largement tendance à ne considérer l’impact de l’épidémie que dans la mesure où elle affecte leur capacité d’investissement, de production ou de vente.
 Il y a pourtant 5 domaines majeurs directement atteints par l’épidémie et qui concernent les entreprises au premier chef :
@@ -681,7 +703,9 @@
           <t>Impact sur la main-d’œuvre</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En Afrique sub-saharienne, quatre pays verront une diminution de leur main-d’œuvre de plus de 30 % en 2020 par rapport à ce qu’elle aurait été sans l’épidémie. Quatorze pays auront une diminution entre 10 et 30 % tandis que 18 pays verront une diminution de 10 %(16).
 En Afrique australe, la main-d’œuvre la plus touchée est celle des ouvriers non ou peu qualifiés. Du point de vue économique, il est vrai que le réservoir de main-d’œuvre non qualifiée semble inépuisable compte tenu des taux importants de chômage. Les coûts induits par le SIDA pour les entreprises sont également moins importants. Cependant, la conjonction de la misère, d’une absence de formation et d’une forte prévalence de séropositivité rend l’avenir du marché de la main-d’œuvre plutôt sombre, peu propice au développement des entreprises comme de leurs marchés.
@@ -716,7 +740,9 @@
           <t>Autres impacts sur les entreprises</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est difficile d’évaluer précisément les conséquences de l’épidémie sur la demande économique. La partie la plus atteinte de la population, les jeunes adultes, n’est pas seulement celle qui travaille mais aussi celle qui consomme. On sait que l’épidémie de SIDA diminue le produit intérieur brut d’un pays et donc le revenu par tête d’habitant. Des études sur l’impact du SIDA sur les foyers montrent clairement une réallocation des ressources vers les dépenses de santé et de funérailles, au détriment de l’éducation, du logement, de l’habillement et de la nourriture.
 Le coût capitalistique de l’épidémie est largement dépendant de la demande du marché. Dans une vaste étude du forum économique mondial ainsi que dans une étude faite en Afrique du Sud par le Bureau of Economic Research, les entreprises semblent être peu nombreuses à avoir pris conscience des conséquences du SIDA sur leur propre équilibre. Ainsi, l’investissement des entreprises ne semble pas souffrir pour l’instant.
